--- a/src/Resource/data.xlsx
+++ b/src/Resource/data.xlsx
@@ -16,6 +16,43 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>G</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>H</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -384,583 +421,609 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1">
-        <v>147</v>
-      </c>
-      <c r="B1" s="2">
-        <v>0.89</v>
-      </c>
-      <c r="C1" s="2">
-        <v>2163</v>
-      </c>
-      <c r="D1" s="2">
-        <v>2305</v>
-      </c>
-      <c r="E1" s="2">
-        <v>2364</v>
-      </c>
-      <c r="F1" s="2">
-        <v>2373</v>
-      </c>
-      <c r="G1" s="2">
-        <v>2408</v>
-      </c>
-      <c r="H1" s="2">
-        <v>2542</v>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B2" s="2">
-        <v>1.1200000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="C2" s="2">
-        <v>2716</v>
+        <v>2163</v>
       </c>
       <c r="D2" s="2">
-        <v>2894</v>
+        <v>2305</v>
       </c>
       <c r="E2" s="2">
-        <v>2968</v>
+        <v>2364</v>
       </c>
       <c r="F2" s="2">
-        <v>2979</v>
+        <v>2373</v>
       </c>
       <c r="G2" s="2">
-        <v>3024</v>
+        <v>2408</v>
       </c>
       <c r="H2" s="2">
-        <v>3192</v>
+        <v>2542</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B3" s="2">
-        <v>1.35</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="C3" s="2">
-        <v>3269</v>
+        <v>2716</v>
       </c>
       <c r="D3" s="2">
-        <v>3483</v>
+        <v>2894</v>
       </c>
       <c r="E3" s="2">
-        <v>3572</v>
+        <v>2968</v>
       </c>
       <c r="F3" s="2">
-        <v>3586</v>
+        <v>2979</v>
       </c>
       <c r="G3" s="2">
-        <v>3640</v>
+        <v>3024</v>
       </c>
       <c r="H3" s="2">
-        <v>3842</v>
+        <v>3192</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B4" s="2">
-        <v>1.58</v>
+        <v>1.35</v>
       </c>
       <c r="C4" s="2">
-        <v>3822</v>
+        <v>3269</v>
       </c>
       <c r="D4" s="2">
-        <v>4072</v>
+        <v>3483</v>
       </c>
       <c r="E4" s="2">
-        <v>4176</v>
+        <v>3572</v>
       </c>
       <c r="F4" s="2">
-        <v>4192</v>
+        <v>3586</v>
       </c>
       <c r="G4" s="2">
-        <v>4255</v>
+        <v>3640</v>
       </c>
       <c r="H4" s="2">
-        <v>4492</v>
+        <v>3842</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B5" s="2">
-        <v>1.8</v>
+        <v>1.58</v>
       </c>
       <c r="C5" s="2">
-        <v>4375</v>
+        <v>3822</v>
       </c>
       <c r="D5" s="2">
-        <v>4662</v>
+        <v>4072</v>
       </c>
       <c r="E5" s="2">
-        <v>4781</v>
+        <v>4176</v>
       </c>
       <c r="F5" s="2">
-        <v>4799</v>
+        <v>4192</v>
       </c>
       <c r="G5" s="2">
-        <v>4871</v>
+        <v>4255</v>
       </c>
       <c r="H5" s="2">
-        <v>5141</v>
+        <v>4492</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B6" s="2">
-        <v>2.0299999999999998</v>
+        <v>1.8</v>
       </c>
       <c r="C6" s="2">
-        <v>4928</v>
+        <v>4375</v>
       </c>
       <c r="D6" s="2">
-        <v>5251</v>
+        <v>4662</v>
       </c>
       <c r="E6" s="2">
-        <v>5385</v>
+        <v>4781</v>
       </c>
       <c r="F6" s="2">
-        <v>5405</v>
+        <v>4799</v>
       </c>
       <c r="G6" s="2">
-        <v>5486</v>
+        <v>4871</v>
       </c>
       <c r="H6" s="2">
-        <v>5791</v>
+        <v>5141</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B7" s="2">
-        <v>2.2599999999999998</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="C7" s="2">
-        <v>5481</v>
+        <v>4928</v>
       </c>
       <c r="D7" s="2">
-        <v>5840</v>
+        <v>5251</v>
       </c>
       <c r="E7" s="2">
-        <v>5989</v>
+        <v>5385</v>
       </c>
       <c r="F7" s="2">
-        <v>6012</v>
+        <v>5405</v>
       </c>
       <c r="G7" s="2">
-        <v>6102</v>
+        <v>5486</v>
       </c>
       <c r="H7" s="2">
-        <v>6441</v>
+        <v>5791</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B8" s="2">
-        <v>2.4900000000000002</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="C8" s="2">
-        <v>6033</v>
+        <v>5481</v>
       </c>
       <c r="D8" s="2">
-        <v>6429</v>
+        <v>5840</v>
       </c>
       <c r="E8" s="2">
-        <v>6593</v>
+        <v>5989</v>
       </c>
       <c r="F8" s="2">
-        <v>6618</v>
+        <v>6012</v>
       </c>
       <c r="G8" s="2">
-        <v>6718</v>
+        <v>6102</v>
       </c>
       <c r="H8" s="2">
-        <v>7091</v>
+        <v>6441</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B9" s="2">
-        <v>2.72</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="C9" s="2">
-        <v>6586</v>
+        <v>6033</v>
       </c>
       <c r="D9" s="2">
-        <v>7018</v>
+        <v>6429</v>
       </c>
       <c r="E9" s="2">
-        <v>7197</v>
+        <v>6593</v>
       </c>
       <c r="F9" s="2">
-        <v>7225</v>
+        <v>6618</v>
       </c>
       <c r="G9" s="2">
-        <v>7333</v>
+        <v>6718</v>
       </c>
       <c r="H9" s="2">
-        <v>7741</v>
+        <v>7091</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B10" s="2">
-        <v>2.94</v>
+        <v>2.72</v>
       </c>
       <c r="C10" s="2">
-        <v>7139</v>
+        <v>6586</v>
       </c>
       <c r="D10" s="2">
-        <v>7607</v>
+        <v>7018</v>
       </c>
       <c r="E10" s="2">
-        <v>7802</v>
+        <v>7197</v>
       </c>
       <c r="F10" s="2">
-        <v>7831</v>
+        <v>7225</v>
       </c>
       <c r="G10" s="2">
-        <v>7949</v>
+        <v>7333</v>
       </c>
       <c r="H10" s="2">
-        <v>8390</v>
+        <v>7741</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B11" s="2">
-        <v>3.17</v>
+        <v>2.94</v>
       </c>
       <c r="C11" s="2">
-        <v>7692</v>
+        <v>7139</v>
       </c>
       <c r="D11" s="2">
-        <v>8196</v>
+        <v>7607</v>
       </c>
       <c r="E11" s="2">
-        <v>8406</v>
+        <v>7802</v>
       </c>
       <c r="F11" s="2">
-        <v>8438</v>
+        <v>7831</v>
       </c>
       <c r="G11" s="2">
-        <v>8564</v>
+        <v>7949</v>
       </c>
       <c r="H11" s="2">
-        <v>9040</v>
+        <v>8390</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>182</v>
-      </c>
-      <c r="B12" s="3">
-        <v>3.4</v>
-      </c>
-      <c r="C12" s="3">
-        <v>8245</v>
-      </c>
-      <c r="D12" s="3">
-        <v>8786</v>
-      </c>
-      <c r="E12" s="3">
-        <v>9010</v>
-      </c>
-      <c r="F12" s="3">
-        <v>9044</v>
-      </c>
-      <c r="G12" s="3">
-        <v>9180</v>
-      </c>
-      <c r="H12" s="3">
-        <v>9690</v>
+        <v>179</v>
+      </c>
+      <c r="B12" s="2">
+        <v>3.17</v>
+      </c>
+      <c r="C12" s="2">
+        <v>7692</v>
+      </c>
+      <c r="D12" s="2">
+        <v>8196</v>
+      </c>
+      <c r="E12" s="2">
+        <v>8406</v>
+      </c>
+      <c r="F12" s="2">
+        <v>8438</v>
+      </c>
+      <c r="G12" s="2">
+        <v>8564</v>
+      </c>
+      <c r="H12" s="2">
+        <v>9040</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>185</v>
-      </c>
-      <c r="B13" s="2">
-        <v>3.63</v>
-      </c>
-      <c r="C13" s="2">
-        <v>8798</v>
-      </c>
-      <c r="D13" s="2">
-        <v>9375</v>
-      </c>
-      <c r="E13" s="2">
-        <v>9614</v>
-      </c>
-      <c r="F13" s="2">
-        <v>9650</v>
-      </c>
-      <c r="G13" s="2">
-        <v>9796</v>
-      </c>
-      <c r="H13" s="2">
-        <v>10340</v>
+        <v>182</v>
+      </c>
+      <c r="B13" s="3">
+        <v>3.4</v>
+      </c>
+      <c r="C13" s="3">
+        <v>8245</v>
+      </c>
+      <c r="D13" s="3">
+        <v>8786</v>
+      </c>
+      <c r="E13" s="3">
+        <v>9010</v>
+      </c>
+      <c r="F13" s="3">
+        <v>9044</v>
+      </c>
+      <c r="G13" s="3">
+        <v>9180</v>
+      </c>
+      <c r="H13" s="3">
+        <v>9690</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B14" s="2">
-        <v>3.86</v>
+        <v>3.63</v>
       </c>
       <c r="C14" s="2">
-        <v>9351</v>
+        <v>8798</v>
       </c>
       <c r="D14" s="2">
-        <v>9964</v>
+        <v>9375</v>
       </c>
       <c r="E14" s="2">
-        <v>10218</v>
+        <v>9614</v>
       </c>
       <c r="F14" s="2">
-        <v>10257</v>
+        <v>9650</v>
       </c>
       <c r="G14" s="2">
-        <v>10411</v>
+        <v>9796</v>
       </c>
       <c r="H14" s="2">
-        <v>10990</v>
+        <v>10340</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B15" s="2">
-        <v>4.08</v>
+        <v>3.86</v>
       </c>
       <c r="C15" s="2">
-        <v>9904</v>
+        <v>9351</v>
       </c>
       <c r="D15" s="2">
-        <v>10553</v>
+        <v>9964</v>
       </c>
       <c r="E15" s="2">
-        <v>10823</v>
+        <v>10218</v>
       </c>
       <c r="F15" s="2">
-        <v>10863</v>
+        <v>10257</v>
       </c>
       <c r="G15" s="2">
-        <v>11027</v>
+        <v>10411</v>
       </c>
       <c r="H15" s="2">
-        <v>11639</v>
+        <v>10990</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B16" s="2">
-        <v>4.3099999999999996</v>
+        <v>4.08</v>
       </c>
       <c r="C16" s="2">
-        <v>10457</v>
+        <v>9904</v>
       </c>
       <c r="D16" s="2">
-        <v>11142</v>
+        <v>10553</v>
       </c>
       <c r="E16" s="2">
-        <v>11427</v>
+        <v>10823</v>
       </c>
       <c r="F16" s="2">
-        <v>11470</v>
+        <v>10863</v>
       </c>
       <c r="G16" s="2">
-        <v>11642</v>
+        <v>11027</v>
       </c>
       <c r="H16" s="2">
-        <v>12289</v>
+        <v>11639</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B17" s="2">
-        <v>4.54</v>
+        <v>4.3099999999999996</v>
       </c>
       <c r="C17" s="2">
-        <v>11010</v>
+        <v>10457</v>
       </c>
       <c r="D17" s="2">
-        <v>11731</v>
+        <v>11142</v>
       </c>
       <c r="E17" s="2">
-        <v>12031</v>
+        <v>11427</v>
       </c>
       <c r="F17" s="2">
-        <v>12076</v>
+        <v>11470</v>
       </c>
       <c r="G17" s="2">
-        <v>12258</v>
+        <v>11642</v>
       </c>
       <c r="H17" s="2">
-        <v>12939</v>
+        <v>12289</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B18" s="2">
-        <v>4.7699999999999996</v>
+        <v>4.54</v>
       </c>
       <c r="C18" s="2">
-        <v>11562</v>
+        <v>11010</v>
       </c>
       <c r="D18" s="2">
-        <v>12321</v>
+        <v>11731</v>
       </c>
       <c r="E18" s="2">
-        <v>12635</v>
+        <v>12031</v>
       </c>
       <c r="F18" s="2">
-        <v>12683</v>
+        <v>12076</v>
       </c>
       <c r="G18" s="2">
-        <v>12874</v>
+        <v>12258</v>
       </c>
       <c r="H18" s="2">
-        <v>13589</v>
+        <v>12939</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B19" s="2">
-        <v>5</v>
+        <v>4.7699999999999996</v>
       </c>
       <c r="C19" s="2">
-        <v>12115</v>
+        <v>11562</v>
       </c>
       <c r="D19" s="2">
-        <v>12910</v>
+        <v>12321</v>
       </c>
       <c r="E19" s="2">
-        <v>13239</v>
+        <v>12635</v>
       </c>
       <c r="F19" s="2">
-        <v>13289</v>
+        <v>12683</v>
       </c>
       <c r="G19" s="2">
-        <v>13489</v>
+        <v>12874</v>
       </c>
       <c r="H19" s="2">
-        <v>14239</v>
+        <v>13589</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B20" s="2">
-        <v>5.22</v>
+        <v>5</v>
       </c>
       <c r="C20" s="2">
-        <v>12668</v>
+        <v>12115</v>
       </c>
       <c r="D20" s="2">
-        <v>13499</v>
+        <v>12910</v>
       </c>
       <c r="E20" s="2">
-        <v>13844</v>
+        <v>13239</v>
       </c>
       <c r="F20" s="2">
-        <v>13896</v>
+        <v>13289</v>
       </c>
       <c r="G20" s="2">
-        <v>14105</v>
+        <v>13489</v>
       </c>
       <c r="H20" s="2">
-        <v>14888</v>
+        <v>14239</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B21" s="2">
-        <v>5.45</v>
+        <v>5.22</v>
       </c>
       <c r="C21" s="2">
-        <v>13221</v>
+        <v>12668</v>
       </c>
       <c r="D21" s="2">
-        <v>14088</v>
+        <v>13499</v>
       </c>
       <c r="E21" s="2">
-        <v>14448</v>
+        <v>13844</v>
       </c>
       <c r="F21" s="2">
-        <v>14502</v>
+        <v>13896</v>
       </c>
       <c r="G21" s="2">
-        <v>14720</v>
+        <v>14105</v>
       </c>
       <c r="H21" s="2">
-        <v>15538</v>
+        <v>14888</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
+        <v>210</v>
+      </c>
+      <c r="B22" s="2">
+        <v>5.45</v>
+      </c>
+      <c r="C22" s="2">
+        <v>13221</v>
+      </c>
+      <c r="D22" s="2">
+        <v>14088</v>
+      </c>
+      <c r="E22" s="2">
+        <v>14448</v>
+      </c>
+      <c r="F22" s="2">
+        <v>14502</v>
+      </c>
+      <c r="G22" s="2">
+        <v>14720</v>
+      </c>
+      <c r="H22" s="2">
+        <v>15538</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
         <v>213</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B23" s="2">
         <v>5.68</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C23" s="2">
         <v>13774</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D23" s="2">
         <v>14677</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E23" s="2">
         <v>15052</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F23" s="2">
         <v>15109</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G23" s="2">
         <v>15336</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H23" s="2">
         <v>16188</v>
       </c>
     </row>
